--- a/doc/外部設計書/04_DB定義書_Thrymr.xlsx
+++ b/doc/外部設計書/04_DB定義書_Thrymr.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25409"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="180" documentId="11_D917C9DCC9379D36B67D482734F9DC3356C136A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF02676-D5A8-4EF4-B05B-E83A5E3F7E6E}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="11_D917C9DCC9379D36B67D482734F9DC3356C136A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9854A488-EF4D-4ADB-8C9F-9EAC9DA057DD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="108">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -160,13 +160,13 @@
     <t>デフォルト値</t>
   </si>
   <si>
-    <t>ユーザID</t>
+    <t>ユーザ名</t>
   </si>
   <si>
-    <t>user_id</t>
+    <t>id</t>
   </si>
   <si>
-    <t>int</t>
+    <t>varchar</t>
   </si>
   <si>
     <t>〇</t>
@@ -175,40 +175,43 @@
     <t>ユーザPW</t>
   </si>
   <si>
-    <t>user_pw</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>ユーザ名</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>登録年月日</t>
-  </si>
-  <si>
-    <t>regist_day</t>
-  </si>
-  <si>
-    <t>date</t>
+    <t>pw</t>
   </si>
   <si>
     <t>ユーザ画像</t>
   </si>
   <si>
-    <t>user_image</t>
+    <t>image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar </t>
   </si>
   <si>
     <t>)</t>
+  </si>
+  <si>
+    <t>userテーブルのSQL</t>
+  </si>
+  <si>
+    <t>テーブルの作成</t>
+  </si>
+  <si>
+    <t>create table user (user_id int auto_increment, user_pw varchar(255) not null, user_name varchar(255) not null, user_image varchar(255));</t>
+  </si>
+  <si>
+    <t>データの挿入</t>
+  </si>
+  <si>
+    <t>insert into user(user_pw,user_name,regist_day,user_image) values ('2501','小嶋','/dokogacha/img/user_image/icon_panda.png');</t>
   </si>
   <si>
     <t>累計いいね数</t>
   </si>
   <si>
     <t>total_good</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>称号画像</t>
@@ -221,6 +224,9 @@
   </si>
   <si>
     <t>title_name</t>
+  </si>
+  <si>
+    <t>user_name</t>
   </si>
   <si>
     <t>外部キー（ユーザ）</t>
@@ -278,6 +284,9 @@
   </si>
   <si>
     <t>review_day</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>タイトル</t>
@@ -353,9 +362,6 @@
   </si>
   <si>
     <t>画像</t>
-  </si>
-  <si>
-    <t>image</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -510,11 +516,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -574,6 +591,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,8 +824,8 @@
   </sheetPr>
   <dimension ref="A1:F998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2154,401 +2183,383 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L29"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
-    <col min="11" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" customWidth="1"/>
+    <col min="12" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:13" ht="13.5" customHeight="1">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B3" s="2" t="s">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="2:13" ht="13.5" customHeight="1">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>44718</v>
       </c>
-      <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B4" s="2" t="s">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:13" ht="13.5" customHeight="1">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="2:13" ht="13.5" customHeight="1">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>44719</v>
       </c>
-      <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:12" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:12" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:13" ht="13.5" customHeight="1"/>
+    <row r="7" spans="2:13" ht="13.5" customHeight="1"/>
+    <row r="8" spans="2:13" ht="13.5" customHeight="1"/>
+    <row r="9" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="8" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
+      <c r="M9" s="8" t="str">
+        <f>"create table "&amp;D5&amp;" ("</f>
         <v>create table user (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A10" s="4">
+    <row r="10" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
+      <c r="F10" s="4">
+        <v>255</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="L10" s="7" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A11" s="4">
+      <c r="K10" s="4"/>
+      <c r="M10" s="7" t="str">
+        <f>D10&amp;" "&amp;E10&amp;" "&amp;IF(F10&lt;&gt;"","("&amp;F10&amp;")","")&amp;IF(D11&lt;&gt;"",",","")</f>
+        <v>id varchar (255),</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4">
+        <v>255</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="M11" s="7" t="str">
+        <f>D11&amp;" "&amp;E11&amp;" "&amp;IF(F11&lt;&gt;"","("&amp;F11&amp;")","")&amp;IF(D12&lt;&gt;"",",","")</f>
+        <v>pw varchar (255),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4">
+      <c r="D12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4">
         <v>255</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="L11" s="7" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_pw varchar (255),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A12" s="4">
-        <v>3</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4">
-        <v>255</v>
-      </c>
-      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="L12" s="7" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_name varchar (255),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A13" s="4">
+      <c r="K12" s="4"/>
+      <c r="M12" s="7" t="str">
+        <f>D12&amp;" "&amp;E12&amp;" "&amp;IF(F12&lt;&gt;"","("&amp;F12&amp;")","")&amp;IF(D13&lt;&gt;"",",","")</f>
+        <v>image varchar  (255)</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="L13" s="7" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>regist_day date ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A14" s="4">
+      <c r="K13" s="4"/>
+      <c r="M13" s="7" t="str">
+        <f>D13&amp;" "&amp;E13&amp;" "&amp;IF(F13&lt;&gt;"","("&amp;F13&amp;")","")&amp;IF(D14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="4">
-        <v>255</v>
-      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="L14" s="7" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_image varchar (255)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A15" s="4">
+      <c r="K14" s="4"/>
+      <c r="M14" s="7" t="str">
+        <f>D14&amp;" "&amp;E14&amp;" "&amp;IF(F14&lt;&gt;"","("&amp;F14&amp;")","")&amp;IF(D15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="L15" s="7" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+      <c r="K15" s="4"/>
+      <c r="M15" s="7" t="str">
+        <f>D15&amp;" "&amp;E15&amp;" "&amp;IF(F15&lt;&gt;"","("&amp;F15&amp;")","")&amp;IF(D16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A16" s="4">
+    <row r="16" spans="2:13" ht="13.5" customHeight="1">
+      <c r="B16" s="4">
         <v>7</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="L16" s="7" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+      <c r="K16" s="4"/>
+      <c r="M16" s="7" t="str">
+        <f>D16&amp;" "&amp;E16&amp;" "&amp;IF(F16&lt;&gt;"","("&amp;F16&amp;")","")&amp;IF(D17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A17" s="4">
+    <row r="17" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B17" s="4">
         <v>8</v>
       </c>
-      <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="L17" s="7" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+      <c r="K17" s="4"/>
+      <c r="M17" s="7" t="str">
+        <f>D17&amp;" "&amp;E17&amp;" "&amp;IF(F17&lt;&gt;"","("&amp;F17&amp;")","")&amp;IF(D18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A18" s="4">
+    <row r="18" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B18" s="4">
         <v>9</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="L18" s="7" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+      <c r="K18" s="4"/>
+      <c r="M18" s="7" t="str">
+        <f>D18&amp;" "&amp;E18&amp;" "&amp;IF(F18&lt;&gt;"","("&amp;F18&amp;")","")&amp;IF(D19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A19" s="4">
+    <row r="19" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B19" s="4">
         <v>10</v>
       </c>
-      <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="L19" s="7" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+      <c r="K19" s="4"/>
+      <c r="M19" s="7" t="str">
+        <f>D19&amp;" "&amp;E19&amp;" "&amp;IF(F19&lt;&gt;"","("&amp;F19&amp;")","")&amp;IF(D20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A20" s="4">
+    <row r="20" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B20" s="4">
         <v>11</v>
       </c>
-      <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="L20" s="7" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+      <c r="K20" s="4"/>
+      <c r="M20" s="7" t="str">
+        <f>D18&amp;" "&amp;E18&amp;" "&amp;IF(F18&lt;&gt;"","("&amp;F18&amp;")","")&amp;IF(D21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A21" s="4">
+    <row r="21" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B21" s="4">
         <v>12</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="L21" s="7" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+      <c r="K21" s="4"/>
+      <c r="M21" s="7" t="str">
+        <f t="shared" ref="M21:M28" si="0">D21&amp;" "&amp;E21&amp;" "&amp;IF(F21&lt;&gt;"","("&amp;F21&amp;")","")&amp;IF(D22&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A22" s="4">
+    <row r="22" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B22" s="4">
         <v>13</v>
       </c>
-      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2557,16 +2568,16 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="L22" s="7" t="str">
-        <f t="shared" ref="L22:L29" si="0">C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+      <c r="K22" s="4"/>
+      <c r="M22" s="7" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A23" s="4">
+    <row r="23" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B23" s="4">
         <v>14</v>
       </c>
-      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2575,16 +2586,16 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="L23" s="7" t="str">
+      <c r="K23" s="4"/>
+      <c r="M23" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A24" s="4">
+    <row r="24" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B24" s="4">
         <v>15</v>
       </c>
-      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2593,16 +2604,16 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="L24" s="7" t="str">
+      <c r="K24" s="4"/>
+      <c r="M24" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A25" s="4">
+    <row r="25" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B25" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2611,16 +2622,16 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="L25" s="7" t="str">
+      <c r="K25" s="4"/>
+      <c r="M25" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A26" s="4">
+    <row r="26" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B26" s="4">
         <v>17</v>
       </c>
-      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2629,16 +2640,16 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="L26" s="7" t="str">
+      <c r="K26" s="4"/>
+      <c r="M26" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A27" s="4">
+    <row r="27" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B27" s="4">
         <v>18</v>
       </c>
-      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2647,16 +2658,16 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="L27" s="7" t="str">
+      <c r="K27" s="4"/>
+      <c r="M27" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A28" s="4">
+    <row r="28" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B28" s="4">
         <v>19</v>
       </c>
-      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2665,36 +2676,65 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="L28" s="7" t="str">
+      <c r="K28" s="4"/>
+      <c r="M28" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A29" s="4">
-        <v>20</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="L29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="13.5" customHeight="1">
-      <c r="L30" s="7" t="s">
+    <row r="29" spans="1:13" ht="13.5" customHeight="1">
+      <c r="M29" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B30" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A32" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:12" ht="13.5" customHeight="1"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
+    </row>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -3662,8 +3702,12 @@
     <row r="997" ht="13.5" customHeight="1"/>
     <row r="998" ht="13.5" customHeight="1"/>
     <row r="999" ht="13.5" customHeight="1"/>
-    <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B31:K31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3673,9 +3717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2002DC-11C0-4A4C-9E43-DFA8D6DE0387}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3809,7 +3851,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>43</v>
@@ -3830,13 +3872,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4">
         <v>255</v>
@@ -3858,13 +3900,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4">
         <v>255</v>
@@ -4188,7 +4230,7 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
@@ -5298,12 +5340,14 @@
         <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>255</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>43</v>
       </c>
@@ -5311,11 +5355,11 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
+        <v>user_name varchar (255),</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
@@ -5323,13 +5367,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
@@ -5349,13 +5393,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4">
         <v>255</v>
@@ -5677,7 +5721,7 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
@@ -6660,9 +6704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6700,7 +6742,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="J2" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1">
@@ -6717,7 +6759,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="J3" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1">
@@ -6734,7 +6776,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="J4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1">
@@ -6798,12 +6840,14 @@
         <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>255</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>43</v>
       </c>
@@ -6813,11 +6857,11 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
+        <v>user_name varchar (255),</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
@@ -6825,13 +6869,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
@@ -7174,7 +7218,7 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
@@ -8195,7 +8239,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="J2" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1">
@@ -8212,7 +8256,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="J3" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1">
@@ -8229,7 +8273,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="J4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1">
@@ -8290,13 +8334,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
@@ -8320,13 +8364,15 @@
       <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>255</v>
+      </c>
       <c r="F11" s="4" t="s">
         <v>43</v>
       </c>
@@ -8336,11 +8382,11 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">user_id int </v>
+        <v>user_name varchar (255)</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
@@ -8669,7 +8715,7 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
@@ -9653,7 +9699,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9675,6 +9721,9 @@
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1">
       <c r="B2" s="2" t="s">
@@ -9690,7 +9739,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="J2" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1">
@@ -9707,7 +9756,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="J3" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1">
@@ -9724,7 +9773,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="J4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1">
@@ -9785,13 +9834,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
@@ -9813,13 +9862,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4">
         <v>255</v>
@@ -10162,7 +10211,7 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
@@ -11145,8 +11194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11271,13 +11320,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
@@ -11304,12 +11353,14 @@
         <v>40</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>255</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
@@ -11317,11 +11368,11 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L11" s="7" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
+        <v>user_name varchar (255),</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
@@ -11329,13 +11380,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4">
         <v>255</v>
@@ -11355,18 +11406,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="L13" s="7" t="str">
@@ -11379,13 +11432,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -11403,20 +11456,22 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4">
         <v>255</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="L15" s="7" t="str">
@@ -11429,20 +11484,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" s="4">
         <v>255</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="L16" s="7" t="str">
@@ -11455,13 +11512,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4">
         <v>255</v>
@@ -11481,13 +11538,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -11505,13 +11562,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -11531,13 +11588,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E20" s="4">
         <v>255</v>
@@ -11545,9 +11602,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" s="7" t="str">
         <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
@@ -11559,13 +11614,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E21" s="4">
         <v>255</v>
@@ -11585,20 +11640,22 @@
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E22" s="4">
         <v>255</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="L22" s="7" t="str">
@@ -11611,13 +11668,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -11635,13 +11692,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E24" s="4">
         <v>255</v>
@@ -11661,13 +11718,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -11752,7 +11809,7 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
@@ -12735,9 +12792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -12800,7 +12855,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -12863,21 +12918,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7"/>
     </row>
@@ -12886,13 +12945,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4">
         <v>255</v>
@@ -13227,7 +13286,7 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="L30" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1"/>
